--- a/data/trans_dic/CAGE_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CAGE_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02175088547326993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05806693151944529</v>
+        <v>0.05806693151944531</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.002368980147419355</v>
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003819071735968601</v>
+        <v>0.003775642964969267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01039849381399013</v>
+        <v>0.01056263504977377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01230980233159196</v>
+        <v>0.01175350664628233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03401407035315298</v>
+        <v>0.03302136405734781</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002512092143094864</v>
+        <v>0.002460205262209545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004315668494302481</v>
+        <v>0.004503592741864167</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005634431638233241</v>
+        <v>0.005598830392869443</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0287509566080074</v>
+        <v>0.02924636354435074</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0174572068519123</v>
+        <v>0.01627614104739073</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03017959292135709</v>
+        <v>0.02922084255932794</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03699587922920647</v>
+        <v>0.03563769204073265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09224703116270144</v>
+        <v>0.0914286533468366</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.00844697924354487</v>
+        <v>0.009080367889477962</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.006278394788451372</v>
+        <v>0.005977774901149095</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.009241984473313189</v>
+        <v>0.009209143595213569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01316716252173272</v>
+        <v>0.01311220005610963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01559097036474516</v>
+        <v>0.0164235350497982</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07627502427367189</v>
+        <v>0.07680157570046139</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.009225337903766062</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01684911927074058</v>
+        <v>0.01684911927074059</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004846685064794637</v>
+        <v>0.004628965644051207</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0157337686343679</v>
+        <v>0.01564664234053499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008914874427467485</v>
+        <v>0.009166889043779148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008144179412149474</v>
+        <v>0.008392011917089284</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0007100268696430175</v>
+        <v>0.0006208562221534429</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001142449904899254</v>
+        <v>0.001125035081839704</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00214441447316452</v>
+        <v>0.002352196299065051</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009836870520796985</v>
+        <v>0.01010903446261229</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003380492061034677</v>
+        <v>0.003356822920771917</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009198221897774984</v>
+        <v>0.009580302429509215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006724116537265941</v>
+        <v>0.006595227060814508</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01098265744967857</v>
+        <v>0.01111175241322277</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01334635874350836</v>
+        <v>0.01369045535839643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0293428831628091</v>
+        <v>0.02928294851842973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01995844494871804</v>
+        <v>0.02043827533307818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02583188917600654</v>
+        <v>0.02575809915993806</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.006935124214874685</v>
+        <v>0.005912524318587038</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.00692643117097257</v>
+        <v>0.006434560735216923</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.008214150339376024</v>
+        <v>0.008682526973370287</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03815555946235531</v>
+        <v>0.04171394286101991</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008505829144462273</v>
+        <v>0.008574329520170914</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01629552296786707</v>
+        <v>0.01651970968849311</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01258647489798354</v>
+        <v>0.01277017826755213</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02705714949694071</v>
+        <v>0.02547917507805959</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.007167031817320004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02988779933092311</v>
+        <v>0.02988779933092312</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.004298721166366975</v>
@@ -976,38 +976,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001565591353358556</v>
+        <v>0.001539189031331008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002396271159615361</v>
+        <v>0.003967799109721862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0017486454848811</v>
+        <v>0.001826370925091958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01608072700574427</v>
+        <v>0.0154693909277166</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.003677425908410316</v>
+        <v>0.005097448251014003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005714138920429337</v>
+        <v>0.006717960612762143</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001945158108829484</v>
+        <v>0.001924093744554874</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002085953512918833</v>
+        <v>0.001983504470459428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005162897924356228</v>
+        <v>0.005088322482629333</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01487890030378385</v>
+        <v>0.01490885266201399</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0177845825595605</v>
+        <v>0.01901162941632409</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03156766982269266</v>
+        <v>0.03472762386487221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02154715844115757</v>
+        <v>0.02599729677140326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05016256924059485</v>
+        <v>0.05277563128298185</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01581086477707429</v>
+        <v>0.01499788381946366</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02519039667669059</v>
+        <v>0.02736142290525052</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03181256210878079</v>
+        <v>0.03345411938531822</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01168337480694832</v>
+        <v>0.01246918580670409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01661542377322522</v>
+        <v>0.01617223564322594</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0188708636400292</v>
+        <v>0.01848318641226897</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03743722043982015</v>
+        <v>0.03745672212566767</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>0.009503738308002409</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02261192966766451</v>
+        <v>0.02261192966766452</v>
       </c>
     </row>
     <row r="14">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01472941158439661</v>
+        <v>0.01468047504496706</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0107062890771747</v>
+        <v>0.01058001032785745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01794643374570999</v>
+        <v>0.01833429676429116</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0005629260610734226</v>
+        <v>0.0005627862245953514</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002629634977160797</v>
+        <v>0.002774037742826926</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01113338200801704</v>
+        <v>0.01116485945709597</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007846788573229532</v>
+        <v>0.007851779260621685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007209733184761533</v>
+        <v>0.007249150166210055</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01752895319100025</v>
+        <v>0.01701234877465027</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02535301915351244</v>
+        <v>0.02545874386696213</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01948209699456315</v>
+        <v>0.01933684796855113</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03368567981835065</v>
+        <v>0.03362884533178042</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.003590381646885647</v>
+        <v>0.003423173299701974</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.007396773247314803</v>
+        <v>0.007708576312752317</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03166524138775918</v>
+        <v>0.03101869430332727</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01279114731829094</v>
+        <v>0.01285554929886738</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01224009418627654</v>
+        <v>0.01204360029653058</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02943279529006094</v>
+        <v>0.03009875737665482</v>
       </c>
     </row>
     <row r="16">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3940</v>
+        <v>3895</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10135</v>
+        <v>10295</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9286</v>
+        <v>8866</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8766</v>
+        <v>8510</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5895</v>
+        <v>5774</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9980</v>
+        <v>10414</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9855</v>
+        <v>9792</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9564</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="7">
@@ -1497,38 +1497,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18011</v>
+        <v>16792</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29414</v>
+        <v>28480</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27908</v>
+        <v>26883</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23775</v>
+        <v>23564</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11109</v>
+        <v>11942</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>6245</v>
+        <v>5946</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21689</v>
+        <v>21612</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30448</v>
+        <v>30321</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>27269</v>
+        <v>28725</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25374</v>
+        <v>25549</v>
       </c>
     </row>
     <row r="8">
@@ -1631,40 +1631,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8207</v>
+        <v>7839</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30900</v>
+        <v>30729</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18511</v>
+        <v>19034</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8475</v>
+        <v>8733</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1127</v>
+        <v>986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4264</v>
+        <v>4677</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5448</v>
+        <v>5599</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11092</v>
+        <v>11014</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>34234</v>
+        <v>35656</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27331</v>
+        <v>26808</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17512</v>
+        <v>17718</v>
       </c>
     </row>
     <row r="11">
@@ -1675,40 +1675,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22601</v>
+        <v>23184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>57628</v>
+        <v>57510</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41441</v>
+        <v>42438</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26882</v>
+        <v>26805</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11011</v>
+        <v>9387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12175</v>
+        <v>11311</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16332</v>
+        <v>17263</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21133</v>
+        <v>23104</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27908</v>
+        <v>28133</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>60648</v>
+        <v>61482</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51160</v>
+        <v>51907</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43143</v>
+        <v>40627</v>
       </c>
     </row>
     <row r="12">
@@ -1811,38 +1811,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1153</v>
+        <v>1909</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>956</v>
+        <v>999</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5897</v>
+        <v>5673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>2019</v>
+        <v>2799</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1513</v>
+        <v>1779</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1960</v>
+        <v>1864</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5659</v>
+        <v>5577</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9397</v>
+        <v>9416</v>
       </c>
     </row>
     <row r="15">
@@ -1853,38 +1853,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9807</v>
+        <v>10483</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15190</v>
+        <v>16710</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11784</v>
+        <v>14218</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18394</v>
+        <v>19353</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7532</v>
+        <v>7145</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>13833</v>
+        <v>15025</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8426</v>
+        <v>8861</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12008</v>
+        <v>12816</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15615</v>
+        <v>15199</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20683</v>
+        <v>20258</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23644</v>
+        <v>23656</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50371</v>
+        <v>50204</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36162</v>
+        <v>35735</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29882</v>
+        <v>30528</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9288</v>
+        <v>9798</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9950</v>
+        <v>9978</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>54724</v>
+        <v>54758</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>49817</v>
+        <v>50090</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>44852</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86702</v>
+        <v>87063</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65803</v>
+        <v>65312</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>56089</v>
+        <v>55994</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12761</v>
+        <v>12167</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26126</v>
+        <v>27227</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28298</v>
+        <v>27721</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>89206</v>
+        <v>89655</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>84576</v>
+        <v>83218</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>75311</v>
+        <v>77015</v>
       </c>
     </row>
     <row r="20">
